--- a/Data/PrincipalloginIncidentmodule.xlsx
+++ b/Data/PrincipalloginIncidentmodule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwinraj\Desktop\Incident\Incident\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\EdwinAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:N11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>10</v>
